--- a/Developing/Bug Report.xlsx
+++ b/Developing/Bug Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
   <si>
     <t>Bug nr.</t>
   </si>
@@ -44,13 +44,166 @@
   </si>
   <si>
     <t>Paraaf</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>je kan niet naar achter lopen</t>
+  </si>
+  <si>
+    <t>Laag</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Level 0</t>
+  </si>
+  <si>
+    <t>de camera staat niet gelijk achter</t>
+  </si>
+  <si>
+    <t>de Player wanneer je het spel start</t>
+  </si>
+  <si>
+    <t>Hoog</t>
+  </si>
+  <si>
+    <t>start het spel, je kunt niet naar achter</t>
+  </si>
+  <si>
+    <t>wanneer je op S klikt.</t>
+  </si>
+  <si>
+    <t>Spel starten, Camera staat op verkeerde</t>
+  </si>
+  <si>
+    <t>postitie gericht</t>
+  </si>
+  <si>
+    <t>kan Ragepotion niet consumen</t>
+  </si>
+  <si>
+    <t>kill een enemy en hoop op een</t>
+  </si>
+  <si>
+    <t>rage potion drop :p,</t>
+  </si>
+  <si>
+    <t>als je die hebt, kan je em niet consumen</t>
+  </si>
+  <si>
+    <t>Redelijk Hoog</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t>loop/ren animatie blijft doorspelen</t>
+  </si>
+  <si>
+    <t>wanneer je niet loopt.</t>
+  </si>
+  <si>
+    <t>Klik op W en dan gelijk alt+tab.</t>
+  </si>
+  <si>
+    <t>alt+tab terug naar het spel en je ziet</t>
+  </si>
+  <si>
+    <t>dat je animatie doorloopt maar jij zelf</t>
+  </si>
+  <si>
+    <t>niet.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Je kunt de items die in je Character slot</t>
+  </si>
+  <si>
+    <t>zitten niet unequipen met rechtermuis</t>
+  </si>
+  <si>
+    <t>knop.</t>
+  </si>
+  <si>
+    <t>zet een item in je Character Slot en</t>
+  </si>
+  <si>
+    <t>klik met Rechtermuis knop, nu krijg je</t>
+  </si>
+  <si>
+    <t>een error.</t>
+  </si>
+  <si>
+    <t>Puzzle</t>
+  </si>
+  <si>
+    <t>de meest linker Sprite zie je niet</t>
+  </si>
+  <si>
+    <t>en je kan de puzzle nu niet completen.</t>
+  </si>
+  <si>
+    <t>Ga naar de puzzle, je ziet dat de meest</t>
+  </si>
+  <si>
+    <t>linker Sprite wit is en dus leeg.</t>
+  </si>
+  <si>
+    <t>Pickup text gaat niet weg wanneer je</t>
+  </si>
+  <si>
+    <t>je kan niet weglopen van de item als je</t>
+  </si>
+  <si>
+    <t>dat zou willen.</t>
+  </si>
+  <si>
+    <t>throw / movement</t>
+  </si>
+  <si>
+    <t>loop tegen het testblok aan in Level 0,</t>
+  </si>
+  <si>
+    <t>je kunt niet weglopen van het blok en</t>
+  </si>
+  <si>
+    <t>wanneer je hem oppakt gaat de tekst</t>
+  </si>
+  <si>
+    <t>altijd weg.</t>
+  </si>
+  <si>
+    <t>de item oppakt en verranderd ook niet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 0 </t>
+  </si>
+  <si>
+    <t>Leveldesign</t>
+  </si>
+  <si>
+    <t>Boomstronk staat niet goed in het level</t>
+  </si>
+  <si>
+    <t>hangt er een beetje boven</t>
+  </si>
+  <si>
+    <t>kijken xD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +211,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -168,10 +333,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -181,8 +347,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="X77" sqref="X77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +665,7 @@
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -508,8 +677,19 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -534,19 +714,43 @@
       <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="2"/>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="X2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
+      <c r="B3" s="6">
+        <v>1</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="1" t="s">
@@ -554,14 +758,36 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="2"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="5"/>
+      <c r="V3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -572,28 +798,59 @@
       </c>
       <c r="H4" s="7"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O4" s="2"/>
+      <c r="P4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="7"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="2"/>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="F6" s="2"/>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="F7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="F8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -606,13 +863,960 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="6">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="6">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="I44" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="I47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="6">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="I57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="I58" t="s">
+        <v>40</v>
+      </c>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="I59" t="s">
+        <v>41</v>
+      </c>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="6">
+        <v>6</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="I70" t="s">
+        <v>45</v>
+      </c>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="I71" t="s">
+        <v>46</v>
+      </c>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="9"/>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="6">
+        <v>7</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="C83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="I83" t="s">
+        <v>51</v>
+      </c>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="I84" t="s">
+        <v>52</v>
+      </c>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="I85" t="s">
+        <v>53</v>
+      </c>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="I86" t="s">
+        <v>54</v>
+      </c>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" t="s">
+        <v>3</v>
+      </c>
+      <c r="I93" s="4"/>
+      <c r="J93" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2"/>
+      <c r="B94" s="6">
+        <v>8</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="C96" t="s">
+        <v>58</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="I96" t="s">
+        <v>60</v>
+      </c>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="C97" t="s">
+        <v>59</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developing/Bug Report.xlsx
+++ b/Developing/Bug Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
   <si>
     <t>Bug nr.</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Paraaf</t>
   </si>
   <si>
-    <t>movement</t>
-  </si>
-  <si>
     <t>je kan niet naar achter lopen</t>
   </si>
   <si>
@@ -197,13 +194,19 @@
   </si>
   <si>
     <t>kijken xD</t>
+  </si>
+  <si>
+    <t>Fahrettin</t>
+  </si>
+  <si>
+    <t>Paraaf: Fahrettin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +221,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +239,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -333,11 +348,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -349,8 +365,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Goed" xfId="2" builtinId="26"/>
     <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -656,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="X77" sqref="X77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,11 +765,11 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="1" t="s">
@@ -758,11 +777,11 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="6"/>
@@ -812,11 +831,11 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2"/>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="2"/>
       <c r="O5" s="2"/>
@@ -827,7 +846,7 @@
       <c r="A6" s="2"/>
       <c r="F6" s="2"/>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2"/>
       <c r="O6" s="2"/>
@@ -878,10 +897,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9"/>
+      <c r="B10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="O10" s="2"/>
       <c r="P10" s="3" t="s">
         <v>9</v>
@@ -934,11 +953,11 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="1" t="s">
@@ -946,7 +965,7 @@
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
@@ -968,22 +987,22 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2"/>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2"/>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L19" s="2"/>
     </row>
@@ -1064,11 +1083,11 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="1" t="s">
@@ -1076,7 +1095,7 @@
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5" t="s">
@@ -1097,11 +1116,11 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="2"/>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L31" s="2"/>
     </row>
@@ -1109,7 +1128,7 @@
       <c r="A32" s="2"/>
       <c r="F32" s="2"/>
       <c r="I32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L32" s="2"/>
     </row>
@@ -1117,7 +1136,7 @@
       <c r="A33" s="2"/>
       <c r="F33" s="2"/>
       <c r="I33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -1193,11 +1212,11 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="1" t="s">
@@ -1205,11 +1224,11 @@
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1227,22 +1246,22 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F44" s="2"/>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45" s="2"/>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L45" s="2"/>
     </row>
@@ -1250,7 +1269,7 @@
       <c r="A46" s="2"/>
       <c r="F46" s="2"/>
       <c r="I46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L46" s="2"/>
     </row>
@@ -1258,7 +1277,7 @@
       <c r="A47" s="2"/>
       <c r="F47" s="2"/>
       <c r="I47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L47" s="2"/>
     </row>
@@ -1278,10 +1297,10 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="9"/>
+      <c r="B49" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="12"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
@@ -1329,11 +1348,11 @@
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="1" t="s">
@@ -1341,7 +1360,7 @@
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5" t="s">
@@ -1363,33 +1382,33 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F57" s="2"/>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F58" s="2"/>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59" s="2"/>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L59" s="2"/>
     </row>
@@ -1465,11 +1484,11 @@
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="1" t="s">
@@ -1477,11 +1496,11 @@
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="5" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1499,22 +1518,22 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F70" s="2"/>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2"/>
       <c r="I71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L71" s="2"/>
     </row>
@@ -1544,10 +1563,10 @@
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="9"/>
+      <c r="B75" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="12"/>
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
@@ -1595,11 +1614,11 @@
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="1" t="s">
@@ -1607,11 +1626,11 @@
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K81" s="5"/>
       <c r="L81" s="5" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1629,44 +1648,44 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="C83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2"/>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2"/>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="C85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2"/>
       <c r="I85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F86" s="2"/>
       <c r="I86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L86" s="2"/>
     </row>
@@ -1686,10 +1705,10 @@
     </row>
     <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="9"/>
+      <c r="B88" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="12"/>
     </row>
     <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
@@ -1737,11 +1756,11 @@
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="1" t="s">
@@ -1749,11 +1768,11 @@
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K94" s="5"/>
       <c r="L94" s="5" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1771,18 +1790,18 @@
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="C96" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F96" s="2"/>
       <c r="I96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L96" s="2"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="C97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F97" s="2"/>
       <c r="L97" s="2"/>
@@ -1813,10 +1832,10 @@
     </row>
     <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="9"/>
+      <c r="B101" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developing/Bug Report.xlsx
+++ b/Developing/Bug Report.xlsx
@@ -676,7 +676,7 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1161,10 +1161,10 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="9"/>
+      <c r="B36" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="12"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>

--- a/Developing/Bug Report.xlsx
+++ b/Developing/Bug Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
   <si>
     <t>Bug nr.</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>Paraaf: Fahrettin</t>
+  </si>
+  <si>
+    <t>Paraaf: Sven</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>Paraaf:</t>
   </si>
 </sst>
 </file>
@@ -675,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +912,7 @@
       <c r="C10" s="12"/>
       <c r="O10" s="2"/>
       <c r="P10" s="3" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7"/>
     </row>
@@ -969,7 +978,7 @@
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1032,10 +1041,10 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9"/>
+      <c r="B23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="12"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
